--- a/spreadies/21.10.22-open-loop-drill.xlsx
+++ b/spreadies/21.10.22-open-loop-drill.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kings\Desktop\Uni\2022 t3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kings\Desktop\Uni\2022 t3\Thesis_robotic_drilling\spreadies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E9EA0B-7638-4D73-B118-5197C5006D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D91749-27E5-4349-A4EA-81372D96A369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/spreadies/21.10.22-open-loop-drill.xlsx
+++ b/spreadies/21.10.22-open-loop-drill.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kings\Desktop\Uni\2022 t3\Thesis_robotic_drilling\spreadies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Uni\Thesis\Thesis_robotic_drilling\spreadies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D91749-27E5-4349-A4EA-81372D96A369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFA704C-876A-4ACA-93EE-390BA9E178C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Wood summary" sheetId="2" r:id="rId2"/>
+    <sheet name="Acrylic summary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t xml:space="preserve">Wood </t>
   </si>
@@ -211,6 +235,12 @@
   </si>
   <si>
     <t>Difference</t>
+  </si>
+  <si>
+    <t>Setpoint</t>
+  </si>
+  <si>
+    <t>Measured depth</t>
   </si>
 </sst>
 </file>
@@ -356,6 +386,2060 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Depth setpoint vs measured</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> depth</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wood summary'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Setpoint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wood summary'!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A26F-40D9-B034-3A851DC1B3A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wood summary'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Measured depth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wood summary'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A26F-40D9-B034-3A851DC1B3A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="152424415"/>
+        <c:axId val="152428159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="152424415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152428159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="152428159"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152424415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Acrylic summary'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Setpoint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Acrylic summary'!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-102F-4E50-9624-6FD8D4ADCE42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Acrylic summary'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Measured depth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Acrylic summary'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-102F-4E50-9624-6FD8D4ADCE42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="146597359"/>
+        <c:axId val="146607759"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="146597359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="146607759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="146607759"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="146597359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8944306-BB31-A20B-04AF-A23D171D66BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45AFC3F5-2BF1-A96B-AD46-CCE8A65ED436}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11182350" y="180975"/>
+          <a:ext cx="2533650" cy="2009775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Average error = 0.8075mm (overshoot)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E24AF1-2143-C2FB-E9FB-DDC9D447F31F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="$A$6">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F49632-4EB7-B6EF-9F26-119E48C40815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10344150" y="552450"/>
+          <a:ext cx="3238500" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:fld id="{A72C5317-D8DC-48A9-9696-D96DF9C80560}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Average error = 5.12</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -621,33 +2705,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -658,7 +2742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -675,7 +2759,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -689,7 +2773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -697,7 +2781,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -705,7 +2789,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -716,7 +2800,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -724,7 +2808,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,7 +2841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -805,7 +2889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -841,7 +2925,7 @@
         <v>25.23</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>57</v>
       </c>
@@ -905,7 +2989,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -941,7 +3025,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14">
         <v>3.62</v>
@@ -971,7 +3055,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15">
         <v>3.72</v>
@@ -1001,7 +3085,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16">
         <v>3.65</v>
@@ -1031,7 +3115,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>25</v>
       </c>
@@ -1066,7 +3150,7 @@
       </c>
       <c r="R17" s="8"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
@@ -1102,7 +3186,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
@@ -1136,7 +3220,7 @@
       </c>
       <c r="R19" s="8"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
@@ -1169,7 +3253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
@@ -1205,7 +3289,7 @@
       </c>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>3</v>
       </c>
@@ -1224,7 +3308,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>17</v>
       </c>
@@ -1257,7 +3341,7 @@
       </c>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
@@ -1267,7 +3351,7 @@
       </c>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>19</v>
       </c>
@@ -1277,25 +3361,25 @@
       </c>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="E26" s="8"/>
       <c r="G26" s="7"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="E27" s="8"/>
       <c r="G27" s="7"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="E28" s="8"/>
       <c r="G28" s="7"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>20</v>
       </c>
@@ -1305,7 +3389,7 @@
       </c>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>21</v>
       </c>
@@ -1325,4 +3409,159 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC0509F-C7D4-4E3D-80A6-0F25DBB697F2}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" cm="1">
+        <f t="array" ref="B1:E1">Sheet1!B10:E10</f>
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="D1">
+        <v>15</v>
+      </c>
+      <c r="E1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" cm="1">
+        <f t="array" ref="B2:E2">Sheet1!B11:E11</f>
+        <v>5.48</v>
+      </c>
+      <c r="C2">
+        <v>9.89</v>
+      </c>
+      <c r="D2">
+        <v>15.7</v>
+      </c>
+      <c r="E2">
+        <v>21.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>ABS(B1-B2)</f>
+        <v>0.48000000000000043</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:E3" si="0">ABS(C1-C2)</f>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>1.9400000000000013</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(B3:E3)</f>
+        <v>0.80750000000000011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E139CC-775C-421E-8AF4-C56906947A1A}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" cm="1">
+        <f t="array" ref="B1:E3">Sheet1!O10:R12</f>
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="D1">
+        <v>15</v>
+      </c>
+      <c r="E1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2">
+        <v>0.81</v>
+      </c>
+      <c r="C2">
+        <v>14.74</v>
+      </c>
+      <c r="D2">
+        <v>21.32</v>
+      </c>
+      <c r="E2">
+        <v>25.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>4.1899999999999995</v>
+      </c>
+      <c r="C3">
+        <v>4.74</v>
+      </c>
+      <c r="D3">
+        <v>6.32</v>
+      </c>
+      <c r="E3">
+        <v>5.23</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(B3:E3)</f>
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>"Average error = " &amp;$F$3</f>
+        <v>Average error = 5.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/spreadies/21.10.22-open-loop-drill.xlsx
+++ b/spreadies/21.10.22-open-loop-drill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Uni\Thesis\Thesis_robotic_drilling\spreadies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFA704C-876A-4ACA-93EE-390BA9E178C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7DACBC-303C-4CC4-9792-76F1D82BEA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,10 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
-  <si>
-    <t xml:space="preserve">Wood </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t>Clear plastic</t>
   </si>
@@ -108,9 +105,6 @@
   </si>
   <si>
     <t>error scale</t>
-  </si>
-  <si>
-    <t>(giant wooden block pine wood)</t>
   </si>
   <si>
     <t>Depth setpoint</t>
@@ -241,13 +235,38 @@
   </si>
   <si>
     <t>Measured depth</t>
+  </si>
+  <si>
+    <t>Pine wood</t>
+  </si>
+  <si>
+    <t>Hole diameter</t>
+  </si>
+  <si>
+    <t>Drill voltage</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Accruacy</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,10 +372,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -369,9 +389,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2216,15 +2241,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
+      <xdr:colOff>366712</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
+      <xdr:rowOff>138111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2429,6 +2454,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>Average error = 5.12</a:t>
           </a:fld>
           <a:endParaRPr lang="en-AU" sz="1100"/>
@@ -2703,10 +2729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2728,32 +2754,32 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3">
         <v>2500</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0.02</v>
@@ -2761,13 +2787,13 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2500</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -2775,7 +2801,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>2500</v>
@@ -2783,7 +2809,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>200</v>
@@ -2791,18 +2817,18 @@
     </row>
     <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>200</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>200</v>
@@ -2810,40 +2836,38 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="3"/>
       <c r="N9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="3"/>
       <c r="S9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -2858,7 +2882,7 @@
         <v>20</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -2874,7 +2898,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="N10" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O10">
         <v>5</v>
@@ -2891,7 +2915,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>5.48</v>
@@ -2906,11 +2930,11 @@
         <v>21.94</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L11" s="8"/>
       <c r="N11" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O11">
         <v>0.81</v>
@@ -2927,7 +2951,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <f>ABS(B10-B11)</f>
@@ -2991,7 +3015,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B13">
         <v>3.7</v>
@@ -3006,11 +3030,11 @@
         <v>3.75</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L13" s="8"/>
       <c r="N13" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O13">
         <v>3.21</v>
@@ -3116,255 +3140,257 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="G17" s="7"/>
+      <c r="L17" s="8"/>
+      <c r="N17" s="7"/>
+      <c r="R17" s="8"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17">
+      <c r="C18">
         <f>14-6</f>
         <v>8</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>8</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>12</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="8"/>
-      <c r="N17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17">
-        <v>2</v>
-      </c>
-      <c r="P17" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q17">
-        <v>35</v>
-      </c>
-      <c r="R17" s="8"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L18" s="8"/>
       <c r="N18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>53</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>56</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="Q18">
+        <v>35</v>
+      </c>
+      <c r="R18" s="8"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
         <v>34</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L19" s="8"/>
       <c r="N19" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q19" t="s">
+        <v>51</v>
+      </c>
+      <c r="R19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="R19" s="8"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L20" s="8"/>
       <c r="N20" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="O20" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>52</v>
+      </c>
+      <c r="R20" s="8"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="N21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P20" t="s">
-        <v>30</v>
-      </c>
-      <c r="R20" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="6"/>
-      <c r="N21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="R21" s="6"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="G22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="3"/>
+      <c r="C22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="6"/>
+      <c r="N22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R22" s="6"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <v>15</v>
-      </c>
-      <c r="E23" s="8">
-        <v>20</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
-      <c r="I23">
-        <v>10</v>
-      </c>
-      <c r="J23">
-        <v>15</v>
-      </c>
-      <c r="K23">
-        <v>20</v>
-      </c>
-      <c r="L23" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="G23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24" s="8">
+        <v>20</v>
+      </c>
       <c r="G24" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>15</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
       </c>
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E25" s="8"/>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E26" s="8"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -3380,31 +3406,318 @@
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="G29" s="7"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="G30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="G31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35">
         <v>20</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="G29" s="7" t="s">
+      <c r="N35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O35">
+        <v>5</v>
+      </c>
+      <c r="P35">
+        <v>10</v>
+      </c>
+      <c r="Q35">
+        <v>15</v>
+      </c>
+      <c r="R35" s="8">
         <v>20</v>
       </c>
-      <c r="L29" s="8"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-      <c r="G30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="6"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>5.48</v>
+      </c>
+      <c r="C36">
+        <v>9.89</v>
+      </c>
+      <c r="D36">
+        <v>15.7</v>
+      </c>
+      <c r="E36" s="10">
+        <v>21.94</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36">
+        <v>0.81</v>
+      </c>
+      <c r="P36">
+        <v>14.74</v>
+      </c>
+      <c r="Q36">
+        <v>21.32</v>
+      </c>
+      <c r="R36" s="8">
+        <v>25.23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37">
+        <f>ABS(B35-B36)</f>
+        <v>0.48000000000000043</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:E37" si="1">ABS(C35-C36)</f>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>1.9400000000000013</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O37">
+        <f>ABS(O35-O36)</f>
+        <v>4.1899999999999995</v>
+      </c>
+      <c r="P37">
+        <f>ABS(P35-P36)</f>
+        <v>4.74</v>
+      </c>
+      <c r="Q37">
+        <f>ABS(Q35-Q36)</f>
+        <v>6.32</v>
+      </c>
+      <c r="R37">
+        <f>ABS(R35-R36)</f>
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="13">
+        <f>1-B37/B35</f>
+        <v>0.90399999999999991</v>
+      </c>
+      <c r="C38" s="13">
+        <f>1-C37/C35</f>
+        <v>0.9890000000000001</v>
+      </c>
+      <c r="D38" s="13">
+        <f>1-D37/D35</f>
+        <v>0.95333333333333337</v>
+      </c>
+      <c r="E38" s="13">
+        <f>1-E37/E35</f>
+        <v>0.90299999999999991</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="O38" s="13">
+        <f>1-O40/O37</f>
+        <v>0.23389021479713601</v>
+      </c>
+      <c r="P38" s="13">
+        <f>1-P40/P37</f>
+        <v>0.25527426160337563</v>
+      </c>
+      <c r="Q38" s="13">
+        <f>1-Q40/Q37</f>
+        <v>0.42246835443037978</v>
+      </c>
+      <c r="R38" s="13">
+        <f>1-R40/R37</f>
+        <v>0.31166347992351817</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="N39" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>3.7</v>
+      </c>
+      <c r="C40">
+        <v>3.68</v>
+      </c>
+      <c r="D40">
+        <v>3.76</v>
+      </c>
+      <c r="E40" s="10">
+        <v>3.75</v>
+      </c>
+      <c r="N40" s="7">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>3.21</v>
+      </c>
+      <c r="P40">
+        <v>3.53</v>
+      </c>
+      <c r="Q40">
+        <v>3.65</v>
+      </c>
+      <c r="R40" s="8">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>3.62</v>
+      </c>
+      <c r="C41">
+        <v>3.75</v>
+      </c>
+      <c r="D41">
+        <v>3.58</v>
+      </c>
+      <c r="E41" s="10">
+        <v>3.71</v>
+      </c>
+      <c r="N41" s="7">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <v>3.6</v>
+      </c>
+      <c r="P41">
+        <v>3.65</v>
+      </c>
+      <c r="Q41">
+        <v>3.78</v>
+      </c>
+      <c r="R41" s="8">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>3.72</v>
+      </c>
+      <c r="C42">
+        <v>3.55</v>
+      </c>
+      <c r="D42">
+        <v>3.96</v>
+      </c>
+      <c r="E42" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="N42" s="7">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>3.53</v>
+      </c>
+      <c r="P42">
+        <v>3.32</v>
+      </c>
+      <c r="Q42">
+        <v>3.43</v>
+      </c>
+      <c r="R42" s="8">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>3.65</v>
+      </c>
+      <c r="C43">
+        <v>3.67</v>
+      </c>
+      <c r="D43">
+        <v>3.93</v>
+      </c>
+      <c r="E43" s="10">
+        <v>4</v>
+      </c>
+      <c r="N43" s="11">
+        <v>4</v>
+      </c>
+      <c r="O43">
+        <v>3.42</v>
+      </c>
+      <c r="P43">
+        <v>3.64</v>
+      </c>
+      <c r="Q43">
+        <v>3.54</v>
+      </c>
+      <c r="R43" s="8">
+        <v>3.69</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3416,7 +3729,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3426,7 +3739,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" cm="1">
         <f t="array" ref="B1:E1">Sheet1!B10:E10</f>
@@ -3444,7 +3757,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2:E2">Sheet1!B11:E11</f>
@@ -3492,7 +3805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E139CC-775C-421E-8AF4-C56906947A1A}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3500,7 +3813,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" cm="1">
         <f t="array" ref="B1:E3">Sheet1!O10:R12</f>
@@ -3518,7 +3831,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>0.81</v>
@@ -3535,7 +3848,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>4.1899999999999995</v>
